--- a/artfynd/A 65357-2019.xlsx
+++ b/artfynd/A 65357-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>79395570</v>
+        <v>91961589</v>
       </c>
       <c r="B2" t="n">
-        <v>106707</v>
+        <v>78479</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,45 +692,41 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>220204</v>
+        <v>392</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Slåtterfibbla</t>
+          <t>Aspgelélav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hypochaeris maculata</t>
+          <t>Collema subnigrescens</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
+          <t>Degel.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Ängesberget, väg Y849, Ång</t>
+          <t>Rävsön, Ång</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>674783.02246873</v>
+        <v>674970.043873907</v>
       </c>
       <c r="R2" t="n">
-        <v>6981212.977102615</v>
+        <v>6981118.008255852</v>
       </c>
       <c r="S2" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -754,7 +750,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2019-06-03</t>
+          <t>2020-01-10</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -764,17 +760,12 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2019-06-03</t>
+          <t>2020-01-10</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>Nord</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -789,26 +780,22 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Tor Hansson Frank</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Tor Hansson Frank</t>
-        </is>
-      </c>
-      <c r="AY2" t="inlineStr">
-        <is>
-          <t>Trafikverkets inventeringar av arter i statliga vägmiljöer</t>
-        </is>
-      </c>
+          <t>Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>91960556</v>
+        <v>79395570</v>
       </c>
       <c r="B3" t="n">
-        <v>89392</v>
+        <v>106707</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -821,37 +808,41 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1202</v>
+        <v>220204</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Slåtterfibbla</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hypochaeris maculata</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Rävsön, Ång</t>
+          <t>Ängesberget, väg Y849, Ång</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>674987.2263000703</v>
+        <v>674783.02246873</v>
       </c>
       <c r="R3" t="n">
-        <v>6981112.995139165</v>
+        <v>6981212.977102615</v>
       </c>
       <c r="S3" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -875,7 +866,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2020-01-10</t>
+          <t>2019-06-03</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -885,12 +876,17 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2020-01-10</t>
+          <t>2019-06-03</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Nord</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -905,19 +901,23 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Tor Hansson Frank</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY3" t="inlineStr"/>
+          <t>Tor Hansson Frank</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr">
+        <is>
+          <t>Trafikverkets inventeringar av arter i statliga vägmiljöer</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>91961594</v>
+        <v>91961596</v>
       </c>
       <c r="B4" t="n">
         <v>78479</v>
@@ -957,10 +957,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>674909.9787945743</v>
+        <v>674668.1501806533</v>
       </c>
       <c r="R4" t="n">
-        <v>6981053.162289142</v>
+        <v>6981189.937519584</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1029,10 +1029,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>91961596</v>
+        <v>91961320</v>
       </c>
       <c r="B5" t="n">
-        <v>78479</v>
+        <v>89406</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1041,25 +1041,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>392</v>
+        <v>1204</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Aspgelélav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Collema subnigrescens</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Degel.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1069,10 +1069,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>674668.1501806533</v>
+        <v>674893.7748902696</v>
       </c>
       <c r="R5" t="n">
-        <v>6981189.937519584</v>
+        <v>6981091.095802139</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1141,10 +1141,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>91961595</v>
+        <v>91961551</v>
       </c>
       <c r="B6" t="n">
-        <v>78479</v>
+        <v>98520</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1153,25 +1153,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>392</v>
+        <v>222498</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Aspgelélav</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Collema subnigrescens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Degel.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1181,10 +1181,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>674912.0627558398</v>
+        <v>674642.7782608782</v>
       </c>
       <c r="R6" t="n">
-        <v>6981056.925935975</v>
+        <v>6981177.167863099</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1253,10 +1253,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>91961320</v>
+        <v>91960874</v>
       </c>
       <c r="B7" t="n">
-        <v>89406</v>
+        <v>89403</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1265,25 +1265,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1293,10 +1293,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>674893.7748902696</v>
+        <v>674591.1397425559</v>
       </c>
       <c r="R7" t="n">
-        <v>6981091.095802139</v>
+        <v>6981159.797765222</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1365,10 +1365,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>91961589</v>
+        <v>91962565</v>
       </c>
       <c r="B8" t="n">
-        <v>78479</v>
+        <v>78503</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1377,25 +1377,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>392</v>
+        <v>6456</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Aspgelélav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Collema subnigrescens</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Degel.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1405,10 +1405,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>674970.043873907</v>
+        <v>674635.8611294347</v>
       </c>
       <c r="R8" t="n">
-        <v>6981118.008255852</v>
+        <v>6981186.840121562</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>91961590</v>
+        <v>91961096</v>
       </c>
       <c r="B9" t="n">
-        <v>78479</v>
+        <v>78569</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1489,25 +1489,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>392</v>
+        <v>6458</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Aspgelélav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Collema subnigrescens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Degel.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1517,10 +1517,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>674975.9276800293</v>
+        <v>674634.9982326975</v>
       </c>
       <c r="R9" t="n">
-        <v>6981084.999941466</v>
+        <v>6981185.881002367</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1589,7 +1589,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>91961551</v>
+        <v>102138315</v>
       </c>
       <c r="B10" t="n">
         <v>98520</v>
@@ -1623,16 +1623,18 @@
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Rävsön, Ång</t>
+          <t>Ängesberget SO, Rävsön, Ång</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>674642.7782608782</v>
+        <v>674714.6837743483</v>
       </c>
       <c r="R10" t="n">
-        <v>6981177.167863099</v>
+        <v>6981200.188405978</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1659,22 +1661,27 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2020-01-10</t>
+          <t>2022-07-08</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:59</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2020-01-10</t>
+          <t>2022-07-08</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:59</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Ser ut att vara ett gammalt grustag.</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1685,26 +1692,31 @@
       </c>
       <c r="AG10" t="b">
         <v>0</v>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>Lövskog</t>
+        </is>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Erik Persson</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Erik Persson</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>91960874</v>
+        <v>102138685</v>
       </c>
       <c r="B11" t="n">
-        <v>89403</v>
+        <v>104404</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1713,38 +1725,44 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1205</v>
+        <v>221849</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Backtimjan</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Thymus serpyllum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Rävsön, Ång</t>
+          <t>Vägen sydost om Ängesberget, Ång</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>674591.1397425559</v>
+        <v>674803.3628708154</v>
       </c>
       <c r="R11" t="n">
-        <v>6981159.797765222</v>
+        <v>6981217.261827945</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1771,22 +1789,22 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2020-01-10</t>
+          <t>2022-07-08</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>16:07</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2020-01-10</t>
+          <t>2022-07-08</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>16:07</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1797,26 +1815,31 @@
       </c>
       <c r="AG11" t="b">
         <v>0</v>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>Vägkant</t>
+        </is>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Erik Persson</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Erik Persson</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>91962565</v>
+        <v>102138309</v>
       </c>
       <c r="B12" t="n">
-        <v>78503</v>
+        <v>101120</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1829,34 +1852,45 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6456</v>
+        <v>222002</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Underviol</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Viola mirabilis</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Rävsön, Ång</t>
+          <t>Ängesberget SO, Rävsön, Ång</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>674635.8611294347</v>
+        <v>674708.4071608032</v>
       </c>
       <c r="R12" t="n">
-        <v>6981186.840121562</v>
+        <v>6981189.353523189</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1883,22 +1917,27 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2020-01-10</t>
+          <t>2022-07-08</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:58</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2020-01-10</t>
+          <t>2022-07-08</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:58</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Ser ut att vara ett gammalt grustag.</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1909,26 +1948,31 @@
       </c>
       <c r="AG12" t="b">
         <v>0</v>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>Lövskog</t>
+        </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Erik Persson</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Erik Persson</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>91961550</v>
+        <v>102138291</v>
       </c>
       <c r="B13" t="n">
-        <v>98520</v>
+        <v>101680</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1941,34 +1985,49 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>222498</v>
+        <v>222412</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>i frukt</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Rävsön, Ång</t>
+          <t>Ängesberget SO, Rävsön, Ång</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>674977.0589548396</v>
+        <v>674714.6837743483</v>
       </c>
       <c r="R13" t="n">
-        <v>6981080.952160328</v>
+        <v>6981200.188405978</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -1995,22 +2054,27 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2020-01-10</t>
+          <t>2022-07-08</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:59</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2020-01-10</t>
+          <t>2022-07-08</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:59</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>Ser ut att vara ett gammalt grustag.</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2021,26 +2085,31 @@
       </c>
       <c r="AG13" t="b">
         <v>0</v>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>Lövskog</t>
+        </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Erik Persson</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Erik Persson</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>91961096</v>
+        <v>91960556</v>
       </c>
       <c r="B14" t="n">
-        <v>78569</v>
+        <v>89392</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2053,21 +2122,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2077,10 +2146,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>674634.9982326975</v>
+        <v>674987.2263000703</v>
       </c>
       <c r="R14" t="n">
-        <v>6981185.881002367</v>
+        <v>6981112.995139165</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2149,10 +2218,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>102138315</v>
+        <v>91961594</v>
       </c>
       <c r="B15" t="n">
-        <v>98520</v>
+        <v>78479</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2161,40 +2230,38 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>222498</v>
+        <v>392</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Aspgelélav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Collema subnigrescens</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>Degel.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Ängesberget SO, Rävsön, Ång</t>
+          <t>Rävsön, Ång</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>674714.6837743483</v>
+        <v>674909.9787945743</v>
       </c>
       <c r="R15" t="n">
-        <v>6981200.188405978</v>
+        <v>6981053.162289142</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2221,27 +2288,22 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2022-07-08</t>
+          <t>2020-01-10</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>15:59</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2022-07-08</t>
+          <t>2020-01-10</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>15:59</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>Ser ut att vara ett gammalt grustag.</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2252,31 +2314,26 @@
       </c>
       <c r="AG15" t="b">
         <v>0</v>
-      </c>
-      <c r="AH15" t="inlineStr">
-        <is>
-          <t>Lövskog</t>
-        </is>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Erik Persson</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Erik Persson</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>102138685</v>
+        <v>91961595</v>
       </c>
       <c r="B16" t="n">
-        <v>104404</v>
+        <v>78479</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2285,44 +2342,38 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>221849</v>
+        <v>392</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Backtimjan</t>
+          <t>Aspgelélav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Thymus serpyllum</t>
+          <t>Collema subnigrescens</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Degel.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Vägen sydost om Ängesberget, Ång</t>
+          <t>Rävsön, Ång</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>674803.3628708154</v>
+        <v>674912.0627558398</v>
       </c>
       <c r="R16" t="n">
-        <v>6981217.261827945</v>
+        <v>6981056.925935975</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2349,22 +2400,22 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2022-07-08</t>
+          <t>2020-01-10</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>16:07</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2022-07-08</t>
+          <t>2020-01-10</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>16:07</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2375,31 +2426,26 @@
       </c>
       <c r="AG16" t="b">
         <v>0</v>
-      </c>
-      <c r="AH16" t="inlineStr">
-        <is>
-          <t>Vägkant</t>
-        </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Erik Persson</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Erik Persson</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>102138309</v>
+        <v>91961590</v>
       </c>
       <c r="B17" t="n">
-        <v>101120</v>
+        <v>78479</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2408,49 +2454,38 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>222002</v>
+        <v>392</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Underviol</t>
+          <t>Aspgelélav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Viola mirabilis</t>
+          <t>Collema subnigrescens</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+          <t>Degel.</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Ängesberget SO, Rävsön, Ång</t>
+          <t>Rävsön, Ång</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>674708.4071608032</v>
+        <v>674975.9276800293</v>
       </c>
       <c r="R17" t="n">
-        <v>6981189.353523189</v>
+        <v>6981084.999941466</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2477,27 +2512,22 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2022-07-08</t>
+          <t>2020-01-10</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>15:58</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2022-07-08</t>
+          <t>2020-01-10</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>15:58</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>Ser ut att vara ett gammalt grustag.</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2508,31 +2538,26 @@
       </c>
       <c r="AG17" t="b">
         <v>0</v>
-      </c>
-      <c r="AH17" t="inlineStr">
-        <is>
-          <t>Lövskog</t>
-        </is>
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Erik Persson</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Erik Persson</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>102138291</v>
+        <v>91961550</v>
       </c>
       <c r="B18" t="n">
-        <v>101680</v>
+        <v>98520</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2545,49 +2570,34 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>222412</v>
+        <v>222498</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>i frukt</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr"/>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Ängesberget SO, Rävsön, Ång</t>
+          <t>Rävsön, Ång</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>674714.6837743483</v>
+        <v>674977.0589548396</v>
       </c>
       <c r="R18" t="n">
-        <v>6981200.188405978</v>
+        <v>6981080.952160328</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2614,27 +2624,22 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2022-07-08</t>
+          <t>2020-01-10</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>15:59</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2022-07-08</t>
+          <t>2020-01-10</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>15:59</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>Ser ut att vara ett gammalt grustag.</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2645,21 +2650,16 @@
       </c>
       <c r="AG18" t="b">
         <v>0</v>
-      </c>
-      <c r="AH18" t="inlineStr">
-        <is>
-          <t>Lövskog</t>
-        </is>
       </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Erik Persson</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Erik Persson</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>

--- a/artfynd/A 65357-2019.xlsx
+++ b/artfynd/A 65357-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>91961589</v>
+        <v>79395570</v>
       </c>
       <c r="B2" t="n">
-        <v>78479</v>
+        <v>106707</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,41 +692,45 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>392</v>
+        <v>220204</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Aspgelélav</t>
+          <t>Slåtterfibbla</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Collema subnigrescens</t>
+          <t>Hypochaeris maculata</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Degel.</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Rävsön, Ång</t>
+          <t>Ängesberget, väg Y849, Ång</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>674970.043873907</v>
+        <v>674783.02246873</v>
       </c>
       <c r="R2" t="n">
-        <v>6981118.008255852</v>
+        <v>6981212.977102615</v>
       </c>
       <c r="S2" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -750,7 +754,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2020-01-10</t>
+          <t>2019-06-03</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -760,12 +764,17 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2020-01-10</t>
+          <t>2019-06-03</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>Nord</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -780,22 +789,26 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Tor Hansson Frank</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY2" t="inlineStr"/>
+          <t>Tor Hansson Frank</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr">
+        <is>
+          <t>Trafikverkets inventeringar av arter i statliga vägmiljöer</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>79395570</v>
+        <v>91960556</v>
       </c>
       <c r="B3" t="n">
-        <v>106707</v>
+        <v>89392</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,41 +821,37 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>220204</v>
+        <v>1202</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Slåtterfibbla</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hypochaeris maculata</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Ängesberget, väg Y849, Ång</t>
+          <t>Rävsön, Ång</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>674783.02246873</v>
+        <v>674987.2263000703</v>
       </c>
       <c r="R3" t="n">
-        <v>6981212.977102615</v>
+        <v>6981112.995139165</v>
       </c>
       <c r="S3" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -866,7 +875,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2019-06-03</t>
+          <t>2020-01-10</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -876,17 +885,12 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2019-06-03</t>
+          <t>2020-01-10</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>Nord</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -901,23 +905,19 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Tor Hansson Frank</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Tor Hansson Frank</t>
-        </is>
-      </c>
-      <c r="AY3" t="inlineStr">
-        <is>
-          <t>Trafikverkets inventeringar av arter i statliga vägmiljöer</t>
-        </is>
-      </c>
+          <t>Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>91961596</v>
+        <v>91961594</v>
       </c>
       <c r="B4" t="n">
         <v>78479</v>
@@ -957,10 +957,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>674668.1501806533</v>
+        <v>674909.9787945743</v>
       </c>
       <c r="R4" t="n">
-        <v>6981189.937519584</v>
+        <v>6981053.162289142</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1029,10 +1029,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>91961320</v>
+        <v>91961596</v>
       </c>
       <c r="B5" t="n">
-        <v>89406</v>
+        <v>78479</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1041,25 +1041,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1204</v>
+        <v>392</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Aspgelélav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Collema subnigrescens</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>Degel.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1069,10 +1069,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>674893.7748902696</v>
+        <v>674668.1501806533</v>
       </c>
       <c r="R5" t="n">
-        <v>6981091.095802139</v>
+        <v>6981189.937519584</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1141,10 +1141,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>91961551</v>
+        <v>91961595</v>
       </c>
       <c r="B6" t="n">
-        <v>98520</v>
+        <v>78479</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1153,25 +1153,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>222498</v>
+        <v>392</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Aspgelélav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Collema subnigrescens</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>Degel.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1181,10 +1181,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>674642.7782608782</v>
+        <v>674912.0627558398</v>
       </c>
       <c r="R6" t="n">
-        <v>6981177.167863099</v>
+        <v>6981056.925935975</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1253,10 +1253,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>91960874</v>
+        <v>91961320</v>
       </c>
       <c r="B7" t="n">
-        <v>89403</v>
+        <v>89406</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1265,25 +1265,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1293,10 +1293,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>674591.1397425559</v>
+        <v>674893.7748902696</v>
       </c>
       <c r="R7" t="n">
-        <v>6981159.797765222</v>
+        <v>6981091.095802139</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1365,10 +1365,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>91962565</v>
+        <v>91961589</v>
       </c>
       <c r="B8" t="n">
-        <v>78503</v>
+        <v>78479</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1377,25 +1377,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6456</v>
+        <v>392</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Aspgelélav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Collema subnigrescens</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>Degel.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1405,10 +1405,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>674635.8611294347</v>
+        <v>674970.043873907</v>
       </c>
       <c r="R8" t="n">
-        <v>6981186.840121562</v>
+        <v>6981118.008255852</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>91961096</v>
+        <v>91961590</v>
       </c>
       <c r="B9" t="n">
-        <v>78569</v>
+        <v>78479</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1489,25 +1489,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6458</v>
+        <v>392</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Aspgelélav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Collema subnigrescens</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Degel.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1517,10 +1517,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>674634.9982326975</v>
+        <v>674975.9276800293</v>
       </c>
       <c r="R9" t="n">
-        <v>6981185.881002367</v>
+        <v>6981084.999941466</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1589,7 +1589,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>102138315</v>
+        <v>91961551</v>
       </c>
       <c r="B10" t="n">
         <v>98520</v>
@@ -1623,18 +1623,16 @@
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Ängesberget SO, Rävsön, Ång</t>
+          <t>Rävsön, Ång</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>674714.6837743483</v>
+        <v>674642.7782608782</v>
       </c>
       <c r="R10" t="n">
-        <v>6981200.188405978</v>
+        <v>6981177.167863099</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1661,27 +1659,22 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2022-07-08</t>
+          <t>2020-01-10</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>15:59</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2022-07-08</t>
+          <t>2020-01-10</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>15:59</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>Ser ut att vara ett gammalt grustag.</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1692,31 +1685,26 @@
       </c>
       <c r="AG10" t="b">
         <v>0</v>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>Lövskog</t>
-        </is>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Erik Persson</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Erik Persson</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>102138685</v>
+        <v>91960874</v>
       </c>
       <c r="B11" t="n">
-        <v>104404</v>
+        <v>89403</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1725,44 +1713,38 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>221849</v>
+        <v>1205</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Backtimjan</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Thymus serpyllum</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Vägen sydost om Ängesberget, Ång</t>
+          <t>Rävsön, Ång</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>674803.3628708154</v>
+        <v>674591.1397425559</v>
       </c>
       <c r="R11" t="n">
-        <v>6981217.261827945</v>
+        <v>6981159.797765222</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1789,22 +1771,22 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2022-07-08</t>
+          <t>2020-01-10</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>16:07</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2022-07-08</t>
+          <t>2020-01-10</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>16:07</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1815,31 +1797,26 @@
       </c>
       <c r="AG11" t="b">
         <v>0</v>
-      </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>Vägkant</t>
-        </is>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Erik Persson</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Erik Persson</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>102138309</v>
+        <v>91962565</v>
       </c>
       <c r="B12" t="n">
-        <v>101120</v>
+        <v>78503</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1852,45 +1829,34 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>222002</v>
+        <v>6456</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Underviol</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Viola mirabilis</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+          <t>(Dicks.) Nyl.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Ängesberget SO, Rävsön, Ång</t>
+          <t>Rävsön, Ång</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>674708.4071608032</v>
+        <v>674635.8611294347</v>
       </c>
       <c r="R12" t="n">
-        <v>6981189.353523189</v>
+        <v>6981186.840121562</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1917,27 +1883,22 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2022-07-08</t>
+          <t>2020-01-10</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>15:58</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2022-07-08</t>
+          <t>2020-01-10</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>15:58</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>Ser ut att vara ett gammalt grustag.</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1948,31 +1909,26 @@
       </c>
       <c r="AG12" t="b">
         <v>0</v>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>Lövskog</t>
-        </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Erik Persson</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Erik Persson</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>102138291</v>
+        <v>91961550</v>
       </c>
       <c r="B13" t="n">
-        <v>101680</v>
+        <v>98520</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1985,49 +1941,34 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>222412</v>
+        <v>222498</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>i frukt</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr"/>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Ängesberget SO, Rävsön, Ång</t>
+          <t>Rävsön, Ång</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>674714.6837743483</v>
+        <v>674977.0589548396</v>
       </c>
       <c r="R13" t="n">
-        <v>6981200.188405978</v>
+        <v>6981080.952160328</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2054,27 +1995,22 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2022-07-08</t>
+          <t>2020-01-10</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>15:59</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2022-07-08</t>
+          <t>2020-01-10</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>15:59</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>Ser ut att vara ett gammalt grustag.</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2085,31 +2021,26 @@
       </c>
       <c r="AG13" t="b">
         <v>0</v>
-      </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>Lövskog</t>
-        </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Erik Persson</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Erik Persson</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>91960556</v>
+        <v>91961096</v>
       </c>
       <c r="B14" t="n">
-        <v>89392</v>
+        <v>78569</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2122,21 +2053,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2146,10 +2077,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>674987.2263000703</v>
+        <v>674634.9982326975</v>
       </c>
       <c r="R14" t="n">
-        <v>6981112.995139165</v>
+        <v>6981185.881002367</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2218,10 +2149,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>91961594</v>
+        <v>102138315</v>
       </c>
       <c r="B15" t="n">
-        <v>78479</v>
+        <v>98520</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2230,38 +2161,40 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>392</v>
+        <v>222498</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Aspgelélav</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Collema subnigrescens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Degel.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Rävsön, Ång</t>
+          <t>Ängesberget SO, Rävsön, Ång</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>674909.9787945743</v>
+        <v>674714.6837743483</v>
       </c>
       <c r="R15" t="n">
-        <v>6981053.162289142</v>
+        <v>6981200.188405978</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2288,22 +2221,27 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2020-01-10</t>
+          <t>2022-07-08</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:59</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2020-01-10</t>
+          <t>2022-07-08</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:59</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>Ser ut att vara ett gammalt grustag.</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2314,26 +2252,31 @@
       </c>
       <c r="AG15" t="b">
         <v>0</v>
+      </c>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>Lövskog</t>
+        </is>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Erik Persson</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Erik Persson</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>91961595</v>
+        <v>102138685</v>
       </c>
       <c r="B16" t="n">
-        <v>78479</v>
+        <v>104404</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2342,38 +2285,44 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>392</v>
+        <v>221849</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Aspgelélav</t>
+          <t>Backtimjan</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Collema subnigrescens</t>
+          <t>Thymus serpyllum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Degel.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Rävsön, Ång</t>
+          <t>Vägen sydost om Ängesberget, Ång</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>674912.0627558398</v>
+        <v>674803.3628708154</v>
       </c>
       <c r="R16" t="n">
-        <v>6981056.925935975</v>
+        <v>6981217.261827945</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2400,22 +2349,22 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2020-01-10</t>
+          <t>2022-07-08</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>16:07</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2020-01-10</t>
+          <t>2022-07-08</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>16:07</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2426,26 +2375,31 @@
       </c>
       <c r="AG16" t="b">
         <v>0</v>
+      </c>
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>Vägkant</t>
+        </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Erik Persson</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Erik Persson</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>91961590</v>
+        <v>102138309</v>
       </c>
       <c r="B17" t="n">
-        <v>78479</v>
+        <v>101120</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2454,38 +2408,49 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>392</v>
+        <v>222002</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Aspgelélav</t>
+          <t>Underviol</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Collema subnigrescens</t>
+          <t>Viola mirabilis</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Degel.</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Rävsön, Ång</t>
+          <t>Ängesberget SO, Rävsön, Ång</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>674975.9276800293</v>
+        <v>674708.4071608032</v>
       </c>
       <c r="R17" t="n">
-        <v>6981084.999941466</v>
+        <v>6981189.353523189</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2512,22 +2477,27 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2020-01-10</t>
+          <t>2022-07-08</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:58</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2020-01-10</t>
+          <t>2022-07-08</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:58</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>Ser ut att vara ett gammalt grustag.</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2538,26 +2508,31 @@
       </c>
       <c r="AG17" t="b">
         <v>0</v>
+      </c>
+      <c r="AH17" t="inlineStr">
+        <is>
+          <t>Lövskog</t>
+        </is>
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Erik Persson</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Erik Persson</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>91961550</v>
+        <v>102138291</v>
       </c>
       <c r="B18" t="n">
-        <v>98520</v>
+        <v>101680</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2570,34 +2545,49 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>222498</v>
+        <v>222412</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Schreb.</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr"/>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>i frukt</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Rävsön, Ång</t>
+          <t>Ängesberget SO, Rävsön, Ång</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>674977.0589548396</v>
+        <v>674714.6837743483</v>
       </c>
       <c r="R18" t="n">
-        <v>6981080.952160328</v>
+        <v>6981200.188405978</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2624,22 +2614,27 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2020-01-10</t>
+          <t>2022-07-08</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:59</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2020-01-10</t>
+          <t>2022-07-08</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:59</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>Ser ut att vara ett gammalt grustag.</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2650,16 +2645,21 @@
       </c>
       <c r="AG18" t="b">
         <v>0</v>
+      </c>
+      <c r="AH18" t="inlineStr">
+        <is>
+          <t>Lövskog</t>
+        </is>
       </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Erik Persson</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Erik Persson</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
